--- a/verification/16.zhangbao.xlsx
+++ b/verification/16.zhangbao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/verification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EC85C-8943-DE49-855E-48AAF074E17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B38AF1-A23A-AA4C-9557-882A42C0866E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6580" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{F93EF51D-3B39-9D4A-B996-840B0624D1E0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>web_site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +74,67 @@
   <si>
     <t>核验日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄市政府</t>
+  </si>
+  <si>
+    <t>政府门户网站-政策文件</t>
+  </si>
+  <si>
+    <t>http://www.sjz.gov.cn/col/1490066673769/index.html</t>
+  </si>
+  <si>
+    <t>石家庄市发改委</t>
+  </si>
+  <si>
+    <t>发改委-政策法规</t>
+  </si>
+  <si>
+    <t>http://fgw.sjz.gov.cn/col/1585968094146/index.html</t>
+  </si>
+  <si>
+    <t>唐山市政府</t>
+  </si>
+  <si>
+    <t>http://www.tangshan.gov.cn/zhuzhan/zfwj/</t>
+  </si>
+  <si>
+    <t>唐山市发改委</t>
+  </si>
+  <si>
+    <t>http://www.tangshan.gov.cn/zhuzhan/fgwzcwj/</t>
+  </si>
+  <si>
+    <t>秦皇岛市政府</t>
+  </si>
+  <si>
+    <t>http://www.qhd.gov.cn:81/lm_list.jsp?code=249</t>
+  </si>
+  <si>
+    <t>秦皇岛市发改委</t>
+  </si>
+  <si>
+    <t>http://www.qhd.gov.cn:81/bmzb.jsp?orgid=198&amp;code=277</t>
+  </si>
+  <si>
+    <t>邯郸市政府</t>
+  </si>
+  <si>
+    <t>http://hdzfxxgk.hd.gov.cn/zfwj/szfwj/</t>
+  </si>
+  <si>
+    <t>邯郸市发改委</t>
+  </si>
+  <si>
+    <t>http://www.hd.gov.cn/fgw/zwgk/yfxz/zcfg/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +145,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -114,21 +177,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0204A7A-0F64-3949-AB7D-A522D658028A}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -594,10 +664,108 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B64AB584-5274-1D4D-BCE5-B00820F42863}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{F7715A19-8B86-0140-9FF8-CCD1F717A3DA}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BE51940D-01A7-914F-B393-665B1C7F74B3}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{DC75F2C7-8CD4-674F-93F1-A0C82BF5ACBC}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{D074F881-8EAA-3043-B81C-D94F0E58A941}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{4D8B6F68-4C3C-8547-BD6A-EEEE3ED11A3A}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{7A656975-1162-204F-BC59-A9735DFBD518}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{65F9B7F3-C548-FF4F-89DE-7D7F10627753}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>